--- a/RangeToMatrix.xlsx
+++ b/RangeToMatrix.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16980" windowHeight="5700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16980" windowHeight="5700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
+    <sheet name="גיליון2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="firstname">גיליון1!$A$1:$A$679</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="679">
   <si>
     <t>ראשית</t>
   </si>
@@ -2402,7 +2403,9 @@
   </sheetPr>
   <dimension ref="A1:P679"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView rightToLeft="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:P50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2410,5525 +2413,6197 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="str">
-        <f t="shared" ref="C1:P10" ca="1" si="0">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ראשית</v>
       </c>
       <c r="D1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שחף</v>
       </c>
       <c r="E1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אנאל</v>
       </c>
       <c r="F1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דורון</v>
       </c>
       <c r="G1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דליה</v>
       </c>
       <c r="H1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אביגייל</v>
       </c>
       <c r="I1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תהלה</v>
       </c>
       <c r="J1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סיון</v>
       </c>
       <c r="K1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אורייה</v>
       </c>
       <c r="L1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אסתר</v>
       </c>
       <c r="M1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אורפז</v>
       </c>
       <c r="N1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עינבר</v>
       </c>
       <c r="O1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אמילי</v>
       </c>
       <c r="P1" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אורנית</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אורנית</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עדיה</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רומי</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לבי</v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דורית</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שירי</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רום</v>
       </c>
       <c r="J2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נינה</v>
       </c>
       <c r="K2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לירן</v>
       </c>
       <c r="L2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נעם</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שירן</v>
       </c>
       <c r="N2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מעיין</v>
       </c>
       <c r="O2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לורן</v>
       </c>
       <c r="P2" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דקלה</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אנג'לינה</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליז</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ענבר</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>איה</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליסה</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לינור</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ריהאם</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שגית</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מיכל</v>
       </c>
       <c r="L3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ברי</v>
       </c>
       <c r="M3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סיוון</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלינוי</v>
       </c>
       <c r="O3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לינדה</v>
       </c>
       <c r="P3" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עדה</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עדה</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שביט</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יוליה</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אדוה</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יקירה</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אזאנש</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תקוה</v>
       </c>
       <c r="J4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שילה</v>
       </c>
       <c r="K4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דולב</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חנה</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>צדף</v>
       </c>
       <c r="N4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לנה</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אגם</v>
       </c>
       <c r="P4" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שפרה</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תהילה</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יוכבד</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פנינית</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סבטלנה</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאם</v>
       </c>
       <c r="H5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גאיה</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רון</v>
       </c>
       <c r="J5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אודל</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נריה</v>
       </c>
       <c r="L5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עדי</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עינת</v>
       </c>
       <c r="N5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תהל</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אשרת</v>
       </c>
       <c r="P5" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אופל</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אופל</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שנל</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דור</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שלומציון</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עמית</v>
       </c>
       <c r="H6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מלנה</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אירנה</v>
       </c>
       <c r="J6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לימור</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליה</v>
       </c>
       <c r="L6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קמילה</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סיגלית</v>
       </c>
       <c r="N6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מירה</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אור</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אילונה</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רויטל</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רוז</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ראיה</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דבי</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עפרי</v>
       </c>
       <c r="H7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ג'ולי</v>
       </c>
       <c r="I7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליזה</v>
       </c>
       <c r="J7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דריה</v>
       </c>
       <c r="K7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>הלל</v>
       </c>
       <c r="L7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלירז</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלון</v>
       </c>
       <c r="N7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רתם</v>
       </c>
       <c r="O7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מרב</v>
       </c>
       <c r="P7" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שרי</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אודליה</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חלי</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תמימה</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>צופיה</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קוראל</v>
       </c>
       <c r="H8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דלית</v>
       </c>
       <c r="I8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יעלה</v>
       </c>
       <c r="J8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מתן</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שיאל</v>
       </c>
       <c r="L8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליגל</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ארגמן</v>
       </c>
       <c r="N8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מאי</v>
       </c>
       <c r="O8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ענהאל</v>
       </c>
       <c r="P8" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סטפני</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סטפני</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מדלן</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אהובה</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ענבל</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ref="C9:P38" ca="1" si="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חפציבה</v>
       </c>
       <c r="H9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נורית</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יערית</v>
       </c>
       <c r="J9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ולנטינה</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עופרי</v>
       </c>
       <c r="L9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ורד</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עדיאל</v>
       </c>
       <c r="N9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליבי</v>
       </c>
       <c r="O9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אורן</v>
       </c>
       <c r="P9" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דוריה</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רחל</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פריאל</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לורי</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלדר</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליסה</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שובה</v>
       </c>
       <c r="I10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מיכאלה</v>
       </c>
       <c r="J10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אושר</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ילנה</v>
       </c>
       <c r="L10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שנית</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אילת</v>
       </c>
       <c r="N10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אחוה</v>
       </c>
       <c r="O10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>צוף</v>
       </c>
       <c r="P10" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סימה</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סימה</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלמוג</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לאה</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>כרמית</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליזי</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אמיליה</v>
       </c>
       <c r="I11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נדיה</v>
       </c>
       <c r="J11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שגיא</v>
       </c>
       <c r="K11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יפית</v>
       </c>
       <c r="L11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אחינעם</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גל</v>
       </c>
       <c r="N11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עדינה</v>
       </c>
       <c r="O11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נירית</v>
       </c>
       <c r="P11" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נטלי</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלומה</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רוזי</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אנט</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מירי</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>זהבה</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קסניה</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גוני</v>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עומר</v>
       </c>
       <c r="K12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חיה</v>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מרינה</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תחיה</v>
       </c>
       <c r="N12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קרן</v>
       </c>
       <c r="O12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נוי</v>
       </c>
       <c r="P12" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אוראל</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="C13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אוראל</v>
       </c>
       <c r="D13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלין</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נעמה</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אדווה</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עיינה</v>
       </c>
       <c r="H13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דייזי</v>
       </c>
       <c r="I13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>צפורה</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלכסנדרה</v>
       </c>
       <c r="K13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אנאבל</v>
       </c>
       <c r="L13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יטבת</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נאוה</v>
       </c>
       <c r="N13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עופרה</v>
       </c>
       <c r="O13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ארבל</v>
       </c>
       <c r="P13" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>צאלה</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מוריאל</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלה</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נילי</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מריאל</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מרוה</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סופה</v>
       </c>
       <c r="I14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אירית</v>
       </c>
       <c r="J14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עידן</v>
       </c>
       <c r="K14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מיה</v>
       </c>
       <c r="L14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חדוה</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>בלה</v>
       </c>
       <c r="N14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עינבל</v>
       </c>
       <c r="O14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ריטה</v>
       </c>
       <c r="P14" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאנה</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פרידה</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לירז</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רגינה</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חוה</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אילה</v>
       </c>
       <c r="H15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חבצלת</v>
       </c>
       <c r="I15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דנה</v>
       </c>
       <c r="J15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליהי</v>
       </c>
       <c r="K15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אסיה</v>
       </c>
       <c r="L15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אמבט</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שירלי</v>
       </c>
       <c r="N15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לי</v>
       </c>
       <c r="O15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שמחה</v>
       </c>
       <c r="P15" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ג'ני</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ג'ני</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גני</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אנסטסיה</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יהלום</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חמוטל</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ברכה</v>
       </c>
       <c r="I16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עידית</v>
       </c>
       <c r="J16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יונית</v>
       </c>
       <c r="K16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ענאל</v>
       </c>
       <c r="L16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ישראלה</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גיטי</v>
       </c>
       <c r="N16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גלית</v>
       </c>
       <c r="O16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אופיר</v>
       </c>
       <c r="P16" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לוטן</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קטרין</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יונה</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לורין</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גילת</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>בתאל</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קרולין</v>
       </c>
       <c r="I17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אילנית</v>
       </c>
       <c r="J17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>כנרת</v>
       </c>
       <c r="K17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אוריין</v>
       </c>
       <c r="L17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יפעת</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>כליל</v>
       </c>
       <c r="N17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מיראל</v>
       </c>
       <c r="O17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ורוניקה</v>
       </c>
       <c r="P17" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אביה</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אביה</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אנה</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פייגא</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מזלי</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אדל</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שחר</v>
       </c>
       <c r="I18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שהם</v>
       </c>
       <c r="J18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דימה</v>
       </c>
       <c r="K18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סתו</v>
       </c>
       <c r="L18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ריקי</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קמה</v>
       </c>
       <c r="N18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גבריאלה</v>
       </c>
       <c r="O18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מסרט</v>
       </c>
       <c r="P18" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מוניקה</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סתיו</v>
       </c>
       <c r="D19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אתי</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סרקעלם</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שיינדל</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אייר</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נויה</v>
       </c>
       <c r="I19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חופית</v>
       </c>
       <c r="J19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אילי</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליאורה</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>הודיה</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ויקי</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עליזה</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>צופית</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עדן</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שמרית</v>
       </c>
       <c r="D20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יהל</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אן</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אוניל</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תומי</v>
       </c>
       <c r="H20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אוהד</v>
       </c>
       <c r="I20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ג'ואנה</v>
       </c>
       <c r="J20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יהלי</v>
       </c>
       <c r="K20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>בינה</v>
       </c>
       <c r="L20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חווה</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שני</v>
       </c>
       <c r="N20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>צילה</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליבנת</v>
       </c>
       <c r="P20" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאל</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאל</v>
       </c>
       <c r="D21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מגי</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מילי</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יונת</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סילבי</v>
       </c>
       <c r="H21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סיגל</v>
       </c>
       <c r="I21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מור</v>
       </c>
       <c r="J21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יקטרינה</v>
       </c>
       <c r="K21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דקל</v>
       </c>
       <c r="L21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רווית</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עטר</v>
       </c>
       <c r="N21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליפז</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לבנת</v>
       </c>
       <c r="P21" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאה</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יסמין</v>
       </c>
       <c r="D22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דרור</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אמה</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יערה</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>זוהרה</v>
       </c>
       <c r="H22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עפרה</v>
       </c>
       <c r="I22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מיטל</v>
       </c>
       <c r="J22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלישבע</v>
       </c>
       <c r="K22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ויקטוריה</v>
       </c>
       <c r="L22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אריקה</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>הגר</v>
       </c>
       <c r="N22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נגה</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מאירה</v>
       </c>
       <c r="P22" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יולי</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יולי</v>
       </c>
       <c r="D23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רוני</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>טוהר</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רונאל</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אירינה</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אפיק</v>
       </c>
       <c r="I23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רן</v>
       </c>
       <c r="J23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אפרת</v>
       </c>
       <c r="K23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פנינה</v>
       </c>
       <c r="L23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליליה</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליאור</v>
       </c>
       <c r="N23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קטי</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חרות</v>
       </c>
       <c r="P23" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>הדר</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דיאנה</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חן</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ג'ניפר</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עלמה</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לין</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ניב</v>
       </c>
       <c r="I24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גליה</v>
       </c>
       <c r="J24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שירה</v>
       </c>
       <c r="K24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יאנה</v>
       </c>
       <c r="L24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יסכה</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אבישג</v>
       </c>
       <c r="N24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רקפת</v>
       </c>
       <c r="O24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ראות</v>
       </c>
       <c r="P24" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליזט</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליזט</v>
       </c>
       <c r="D25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פלג</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סטלה</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דביר</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אשל</v>
       </c>
       <c r="H25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>בטי</v>
       </c>
       <c r="I25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תאיר</v>
       </c>
       <c r="J25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דינה</v>
       </c>
       <c r="K25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>טטיאנה</v>
       </c>
       <c r="L25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ניקול</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דורין</v>
       </c>
       <c r="N25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלייה</v>
       </c>
       <c r="O25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ורה</v>
       </c>
       <c r="P25" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ציפורה</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רוחמה</v>
       </c>
       <c r="D26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לואיזה</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מאיה</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דפני</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נועה</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ציפי</v>
       </c>
       <c r="I26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שנהב</v>
       </c>
       <c r="J26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליזבט</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נלי</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קים</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ענת</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שלי</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לאורה</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אינסה</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ראומה</v>
       </c>
       <c r="D27" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נועם</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>טליה</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מוראל</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>איבון</v>
       </c>
       <c r="H27" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יהודית</v>
       </c>
       <c r="I27" t="str">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קאי</v>
       </c>
       <c r="J27" t="str">
-        <f t="shared" ref="C27:P38" ca="1" si="2">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מרגלית</v>
       </c>
       <c r="K27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אווה</v>
       </c>
       <c r="L27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קריסטינה</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דנית</v>
       </c>
       <c r="N27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גילי</v>
       </c>
       <c r="O27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אריאל</v>
       </c>
       <c r="P27" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>הללי</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>הללי</v>
       </c>
       <c r="D28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אמי</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אחינועם</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לוטם</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליענה</v>
       </c>
       <c r="H28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>הלנה</v>
       </c>
       <c r="I28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליליאן</v>
       </c>
       <c r="J28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עדנה</v>
       </c>
       <c r="K28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פני</v>
       </c>
       <c r="L28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מלכה</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דבורה</v>
       </c>
       <c r="N28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליאן</v>
       </c>
       <c r="O28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליהיא</v>
       </c>
       <c r="P28" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אורה</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נתנאלה</v>
       </c>
       <c r="D29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לינה</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יהב</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מישל</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תומר</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אילנה</v>
       </c>
       <c r="I29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שובל</v>
       </c>
       <c r="J29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אוריאן</v>
       </c>
       <c r="K29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עתליה</v>
       </c>
       <c r="L29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאב</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>בל</v>
       </c>
       <c r="N29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דניאלה</v>
       </c>
       <c r="O29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דניס</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאור</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאור</v>
       </c>
       <c r="D30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יעלי</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מרגריטה</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>איילה</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אורטל</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>טובה</v>
       </c>
       <c r="I30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רונלי</v>
       </c>
       <c r="J30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דגנית</v>
       </c>
       <c r="K30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לינוי</v>
       </c>
       <c r="L30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאורה</v>
       </c>
       <c r="M30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לבנה</v>
       </c>
       <c r="N30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גיטל</v>
       </c>
       <c r="O30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רוזה</v>
       </c>
       <c r="P30" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גנית</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תם</v>
       </c>
       <c r="D31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יפה</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>צביה</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ים</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נאדין</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>צליל</v>
       </c>
       <c r="I31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לידיה</v>
       </c>
       <c r="J31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מצדה</v>
       </c>
       <c r="K31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אדר</v>
       </c>
       <c r="L31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אורלי</v>
       </c>
       <c r="M31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליסיה</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מריה</v>
       </c>
       <c r="O31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קטיה</v>
       </c>
       <c r="P31" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נעמי</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נעמי</v>
       </c>
       <c r="D32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ג'וליה</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ניבה</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סבינה</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שושנה</v>
       </c>
       <c r="H32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מיי</v>
       </c>
       <c r="I32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>בתיה</v>
       </c>
       <c r="J32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רביד</v>
       </c>
       <c r="K32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אביטל</v>
       </c>
       <c r="L32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פז</v>
       </c>
       <c r="M32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליחן</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>יבגניה</v>
       </c>
       <c r="O32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דניאל</v>
       </c>
       <c r="P32" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גילה</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קרולינה</v>
       </c>
       <c r="D33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מיא</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>איילת</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>חנין</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נדין</v>
       </c>
       <c r="H33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נטע</v>
       </c>
       <c r="I33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מרים</v>
       </c>
       <c r="J33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שלו</v>
       </c>
       <c r="K33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נווה</v>
       </c>
       <c r="L33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ירדנה</v>
       </c>
       <c r="M33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רינת</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דר</v>
       </c>
       <c r="O33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שירין</v>
       </c>
       <c r="P33" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אושרה</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אסנת</v>
       </c>
       <c r="D34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ימית</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ז'אנה</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רלי</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סביון</v>
       </c>
       <c r="H34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פזית</v>
       </c>
       <c r="I34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלונה</v>
       </c>
       <c r="J34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מילנה</v>
       </c>
       <c r="K34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלינור</v>
       </c>
       <c r="L34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אושרית</v>
       </c>
       <c r="M34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שוהם</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נסטיה</v>
       </c>
       <c r="O34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גבריאל</v>
       </c>
       <c r="P34" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאן</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליאן</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אלי</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דוריאל</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מלוינה</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליונה</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>פאני</v>
       </c>
       <c r="I35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נרקיס</v>
       </c>
       <c r="J35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אוריה</v>
       </c>
       <c r="K35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שקד</v>
       </c>
       <c r="L35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תכלת</v>
       </c>
       <c r="M35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>איטה</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>להב</v>
       </c>
       <c r="O35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גיל</v>
       </c>
       <c r="P35" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אשלי</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>הוד</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סימונה</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עתר</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מרסל</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליה</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ליעד</v>
       </c>
       <c r="I36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>זהר</v>
       </c>
       <c r="J36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אושרי</v>
       </c>
       <c r="K36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דפנה</v>
       </c>
       <c r="L36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>גיא</v>
       </c>
       <c r="M36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ירדן</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שיילי</v>
       </c>
       <c r="O36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שלומית</v>
       </c>
       <c r="P36" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מירב</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מירב</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>תמרה</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ורדי</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שונית</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לוסי</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רותם</v>
       </c>
       <c r="I37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אושרת</v>
       </c>
       <c r="J37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מיטב</v>
       </c>
       <c r="K37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>שרין</v>
       </c>
       <c r="L37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>רייזי</v>
       </c>
       <c r="M37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>דין</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אורין</v>
       </c>
       <c r="O37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מזל</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>עמר</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>נופית</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קרינה</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>מרי</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>בלומה</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אמונה</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>כהן</v>
       </c>
       <c r="I38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>הדסה</v>
       </c>
       <c r="J38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לורה</v>
       </c>
       <c r="K38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>ספיר</v>
       </c>
       <c r="L38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>סוזן</v>
       </c>
       <c r="M38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>לירי</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>קארין</v>
       </c>
       <c r="O38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אליס</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
         <v>אביב</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="A39" t="s">
         <v>38</v>
       </c>
+      <c r="C39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אלנה</v>
+      </c>
+      <c r="D39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רויה</v>
+      </c>
+      <c r="E39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>סהר</v>
+      </c>
+      <c r="F39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מדלין</v>
+      </c>
+      <c r="G39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רבקה</v>
+      </c>
+      <c r="H39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שרונה</v>
+      </c>
+      <c r="I39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שאנל</v>
+      </c>
+      <c r="J39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אנפה</v>
+      </c>
+      <c r="K39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>קורין</v>
+      </c>
+      <c r="L39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רונית</v>
+      </c>
+      <c r="M39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אביבה</v>
+      </c>
+      <c r="N39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>יראת</v>
+      </c>
+      <c r="O39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ליטל</v>
+      </c>
+      <c r="P39" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>לילך</v>
+      </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" t="s">
         <v>39</v>
       </c>
+      <c r="C40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>לילך</v>
+      </c>
+      <c r="D40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>סופי</v>
+      </c>
+      <c r="E40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נוגה</v>
+      </c>
+      <c r="F40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מורן</v>
+      </c>
+      <c r="G40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>סוניה</v>
+      </c>
+      <c r="H40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אוריאל</v>
+      </c>
+      <c r="I40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>כרמל</v>
+      </c>
+      <c r="J40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אסיל</v>
+      </c>
+      <c r="K40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רינה</v>
+      </c>
+      <c r="L40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נטליה</v>
+      </c>
+      <c r="M40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>יפעה</v>
+      </c>
+      <c r="N40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אסתי</v>
+      </c>
+      <c r="O40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>עינב</v>
+      </c>
+      <c r="P40" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ארינה</v>
+      </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="A41" t="s">
         <v>40</v>
       </c>
+      <c r="C41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>דיקלה</v>
+      </c>
+      <c r="D41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>לירון</v>
+      </c>
+      <c r="E41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אליז</v>
+      </c>
+      <c r="F41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ג'סיקה</v>
+      </c>
+      <c r="G41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>קסם</v>
+      </c>
+      <c r="H41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>תימור</v>
+      </c>
+      <c r="I41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ברית</v>
+      </c>
+      <c r="J41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ליר</v>
+      </c>
+      <c r="K41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ביאטריס</v>
+      </c>
+      <c r="L41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שושן</v>
+      </c>
+      <c r="M41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אורי</v>
+      </c>
+      <c r="N41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רננה</v>
+      </c>
+      <c r="O41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מריאנה</v>
+      </c>
+      <c r="P41" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>זיוה</v>
+      </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="A42" t="s">
         <v>41</v>
       </c>
+      <c r="C42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>זיוה</v>
+      </c>
+      <c r="D42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ליאת</v>
+      </c>
+      <c r="E42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שימרית</v>
+      </c>
+      <c r="F42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שקמה</v>
+      </c>
+      <c r="G42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>פולינה</v>
+      </c>
+      <c r="H42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רונה</v>
+      </c>
+      <c r="I42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>בינת</v>
+      </c>
+      <c r="J42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>זוהר</v>
+      </c>
+      <c r="K42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>תמי</v>
+      </c>
+      <c r="L42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>כריסטינה</v>
+      </c>
+      <c r="M42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ג'יסל</v>
+      </c>
+      <c r="N42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אולגה</v>
+      </c>
+      <c r="O42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ויטל</v>
+      </c>
+      <c r="P42" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מירית</v>
+      </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="A43" t="s">
         <v>42</v>
       </c>
+      <c r="C43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>איטל</v>
+      </c>
+      <c r="D43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>סופיה</v>
+      </c>
+      <c r="E43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רז</v>
+      </c>
+      <c r="F43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>יובל</v>
+      </c>
+      <c r="G43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אביגיל</v>
+      </c>
+      <c r="H43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אביבית</v>
+      </c>
+      <c r="I43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רעיה</v>
+      </c>
+      <c r="J43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>טופז</v>
+      </c>
+      <c r="K43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ולריה</v>
+      </c>
+      <c r="L43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>היא</v>
+      </c>
+      <c r="M43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אורית</v>
+      </c>
+      <c r="N43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>הילה</v>
+      </c>
+      <c r="O43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>גילית</v>
+      </c>
+      <c r="P43" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>תום</v>
+      </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="A44" t="s">
         <v>43</v>
       </c>
+      <c r="C44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>תום</v>
+      </c>
+      <c r="D44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ברקת</v>
+      </c>
+      <c r="E44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שרון</v>
+      </c>
+      <c r="F44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שרה</v>
+      </c>
+      <c r="G44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>עטרה</v>
+      </c>
+      <c r="H44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רוית</v>
+      </c>
+      <c r="I44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>זהבית</v>
+      </c>
+      <c r="J44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>משי</v>
+      </c>
+      <c r="K44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>פאר</v>
+      </c>
+      <c r="L44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נחמה</v>
+      </c>
+      <c r="M44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אופירה</v>
+      </c>
+      <c r="N44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מאור</v>
+      </c>
+      <c r="O44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>איתי</v>
+      </c>
+      <c r="P44" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>גלי</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="A45" t="s">
         <v>44</v>
       </c>
+      <c r="C45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>סלי</v>
+      </c>
+      <c r="D45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אינה</v>
+      </c>
+      <c r="E45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שנאל</v>
+      </c>
+      <c r="F45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אליזבטה</v>
+      </c>
+      <c r="G45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>תמר</v>
+      </c>
+      <c r="H45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>תפארת</v>
+      </c>
+      <c r="I45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שרית</v>
+      </c>
+      <c r="J45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>סי</v>
+      </c>
+      <c r="K45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>הדס</v>
+      </c>
+      <c r="L45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>צוריה</v>
+      </c>
+      <c r="M45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נהורא</v>
+      </c>
+      <c r="N45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>יעל</v>
+      </c>
+      <c r="O45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>חגית</v>
+      </c>
+      <c r="P45" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רחלי</v>
+      </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="A46" t="s">
         <v>45</v>
       </c>
+      <c r="C46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מראם</v>
+      </c>
+      <c r="D46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שירז</v>
+      </c>
+      <c r="E46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נור</v>
+      </c>
+      <c r="F46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>טל</v>
+      </c>
+      <c r="G46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שריי</v>
+      </c>
+      <c r="H46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>תרצה</v>
+      </c>
+      <c r="I46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שי</v>
+      </c>
+      <c r="J46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>זיו</v>
+      </c>
+      <c r="K46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רותי</v>
+      </c>
+      <c r="L46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>לטם</v>
+      </c>
+      <c r="M46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מעין</v>
+      </c>
+      <c r="N46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>הלן</v>
+      </c>
+      <c r="O46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אוסנת</v>
+      </c>
+      <c r="P46" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>חני</v>
+      </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="A47" t="s">
         <v>46</v>
       </c>
+      <c r="C47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>חני</v>
+      </c>
+      <c r="D47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>טלי</v>
+      </c>
+      <c r="E47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ירין</v>
+      </c>
+      <c r="F47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רפאלה</v>
+      </c>
+      <c r="G47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>כוכב</v>
+      </c>
+      <c r="H47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שיר</v>
+      </c>
+      <c r="I47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אודיה</v>
+      </c>
+      <c r="J47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>סמדר</v>
+      </c>
+      <c r="K47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>קורל</v>
+      </c>
+      <c r="L47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>גפן</v>
+      </c>
+      <c r="M47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ירושלים</v>
+      </c>
+      <c r="N47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אלינה</v>
+      </c>
+      <c r="O47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>גיתית</v>
+      </c>
+      <c r="P47" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נל</v>
+      </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="C48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אנבל</v>
+      </c>
+      <c r="D48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אריאלה</v>
+      </c>
+      <c r="E48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נעה</v>
+      </c>
+      <c r="F48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רעות</v>
+      </c>
+      <c r="G48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שיראל</v>
+      </c>
+      <c r="H48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שילת</v>
+      </c>
+      <c r="I48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רות</v>
+      </c>
+      <c r="J48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מיתר</v>
+      </c>
+      <c r="K48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מבשרת</v>
+      </c>
+      <c r="L48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נאור</v>
+      </c>
+      <c r="M48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רנה</v>
+      </c>
+      <c r="N48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>סער</v>
+      </c>
+      <c r="O48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>איריס</v>
+      </c>
+      <c r="P48" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>פרח</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="C49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>פרח</v>
+      </c>
+      <c r="D49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מוריה</v>
+      </c>
+      <c r="E49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רשל</v>
+      </c>
+      <c r="F49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>רמה</v>
+      </c>
+      <c r="G49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ניצן</v>
+      </c>
+      <c r="H49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אופק</v>
+      </c>
+      <c r="I49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>פלורין</v>
+      </c>
+      <c r="J49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>סנדרה</v>
+      </c>
+      <c r="K49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>לריסה</v>
+      </c>
+      <c r="L49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נופר</v>
+      </c>
+      <c r="M49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>שולמית</v>
+      </c>
+      <c r="N49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אוקסנה</v>
+      </c>
+      <c r="O49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ציון</v>
+      </c>
+      <c r="P49" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>אידית</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="C50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>בר</v>
+      </c>
+      <c r="D50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>נתלי</v>
+      </c>
+      <c r="E50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>קרין</v>
+      </c>
+      <c r="F50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מיקה</v>
+      </c>
+      <c r="G50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>טהר</v>
+      </c>
+      <c r="H50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>הילי</v>
+      </c>
+      <c r="I50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>הלית</v>
+      </c>
+      <c r="J50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>גאולה</v>
+      </c>
+      <c r="K50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>כסיף</v>
+      </c>
+      <c r="L50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מורל</v>
+      </c>
+      <c r="M50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>לידור</v>
+      </c>
+      <c r="N50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>מלי</v>
+      </c>
+      <c r="O50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>ורדה</v>
+      </c>
+      <c r="P50" t="str">
+        <f ca="1">OFFSET(firstname,COLUMN()-COLUMN($C$1)+((ROW()-ROW($C$1))*(ROWS(firstname)/50)),0,1,1)</f>
+        <v>לידר</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="A66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
+      <c r="A67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
+      <c r="A68" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
+      <c r="A69" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="A70" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="A71" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+      <c r="A72" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="A73" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="A74" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
+      <c r="A75" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+      <c r="A76" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+      <c r="A77" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
+      <c r="A78" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
+      <c r="A79" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
+      <c r="A80" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
+      <c r="A81" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
+      <c r="A82" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
+      <c r="A83" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
+      <c r="A84" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
+      <c r="A85" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
+      <c r="A86" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
+      <c r="A87" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
+      <c r="A88" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
+      <c r="A89" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
+      <c r="A90" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
+      <c r="A91" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
+      <c r="A92" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
+      <c r="A93" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
+      <c r="A94" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
+      <c r="A95" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
+      <c r="A96" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
+      <c r="A98" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="A99" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
+      <c r="A100" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
+      <c r="A101" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
+      <c r="A102" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+      <c r="A103" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="A104" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
+      <c r="A105" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
+      <c r="A106" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
+      <c r="A107" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
+      <c r="A108" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
+      <c r="A109" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
+      <c r="A110" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
+      <c r="A111" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
+      <c r="A112" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+      <c r="A113" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
+      <c r="A114" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
+      <c r="A115" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
+      <c r="A116" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
+      <c r="A117" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
+      <c r="A118" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
+      <c r="A119" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
+      <c r="A120" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
+      <c r="A121" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="1" t="s">
+      <c r="A122" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="1" t="s">
+      <c r="A123" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
+      <c r="A124" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="1" t="s">
+      <c r="A125" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="1" t="s">
+      <c r="A126" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
+      <c r="A127" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
+      <c r="A128" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
+      <c r="A129" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
+      <c r="A130" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="1" t="s">
+      <c r="A131" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A132" s="1" t="s">
+      <c r="A132" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
+      <c r="A133" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
+      <c r="A134" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
+      <c r="A135" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
+      <c r="A136" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
+      <c r="A137" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
+      <c r="A138" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
+      <c r="A139" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
+      <c r="A140" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
+      <c r="A141" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
+      <c r="A142" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
+      <c r="A143" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
+      <c r="A144" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
+      <c r="A145" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
+      <c r="A146" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
+      <c r="A147" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
+      <c r="A148" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A149" s="1" t="s">
+      <c r="A149" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A150" s="1" t="s">
+      <c r="A150" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="1" t="s">
+      <c r="A151" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="1" t="s">
+      <c r="A152" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A153" s="1" t="s">
+      <c r="A153" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="1" t="s">
+      <c r="A154" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="1" t="s">
+      <c r="A155" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A156" s="1" t="s">
+      <c r="A156" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="1" t="s">
+      <c r="A157" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="1" t="s">
+      <c r="A158" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A159" s="1" t="s">
+      <c r="A159" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+      <c r="A160" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
+      <c r="A161" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A162" s="1" t="s">
+      <c r="A162" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A163" s="1" t="s">
+      <c r="A163" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+      <c r="A164" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A165" s="1" t="s">
+      <c r="A165" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="1" t="s">
+      <c r="A166" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="1" t="s">
+      <c r="A167" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="1" t="s">
+      <c r="A168" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="1" t="s">
+      <c r="A169" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="1" t="s">
+      <c r="A170" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="1" t="s">
+      <c r="A171" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A173" s="1" t="s">
+      <c r="A173" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="1" t="s">
+      <c r="A174" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="1" t="s">
+      <c r="A175" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="1" t="s">
+      <c r="A176" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="1" t="s">
+      <c r="A177" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
+      <c r="A178" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A179" s="1" t="s">
+      <c r="A179" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="1" t="s">
+      <c r="A180" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="1" t="s">
+      <c r="A181" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A182" s="1" t="s">
+      <c r="A182" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="1" t="s">
+      <c r="A183" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="1" t="s">
+      <c r="A184" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A185" s="1" t="s">
+      <c r="A185" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="1" t="s">
+      <c r="A186" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A188" s="1" t="s">
+      <c r="A188" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="1" t="s">
+      <c r="A189" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="1" t="s">
+      <c r="A190" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="1" t="s">
+      <c r="A191" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A192" s="1" t="s">
+      <c r="A192" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="1" t="s">
+      <c r="A193" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="1" t="s">
+      <c r="A194" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="1" t="s">
+      <c r="A195" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="1" t="s">
+      <c r="A196" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A197" s="1" t="s">
+      <c r="A197" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A198" s="1" t="s">
+      <c r="A198" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="1" t="s">
+      <c r="A199" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="1" t="s">
+      <c r="A200" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="1" t="s">
+      <c r="A201" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A202" s="1" t="s">
+      <c r="A202" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="1" t="s">
+      <c r="A203" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="1" t="s">
+      <c r="A204" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A205" s="1" t="s">
+      <c r="A205" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="1" t="s">
+      <c r="A206" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A207" s="1" t="s">
+      <c r="A207" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A208" s="1" t="s">
+      <c r="A208" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="1" t="s">
+      <c r="A209" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A210" s="1" t="s">
+      <c r="A210" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="1" t="s">
+      <c r="A211" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="1" t="s">
+      <c r="A212" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="1" t="s">
+      <c r="A213" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="1" t="s">
+      <c r="A214" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A215" s="1" t="s">
+      <c r="A215" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
+      <c r="A216" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
+      <c r="A217" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
+      <c r="A218" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+      <c r="A219" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="1" t="s">
+      <c r="A220" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="1" t="s">
+      <c r="A221" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="1" t="s">
+      <c r="A222" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A223" s="1" t="s">
+      <c r="A223" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A224" s="1" t="s">
+      <c r="A224" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A225" s="1" t="s">
+      <c r="A225" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+      <c r="A226" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
+      <c r="A227" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="1" t="s">
+      <c r="A228" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A229" s="1" t="s">
+      <c r="A229" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="1" t="s">
+      <c r="A230" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="1" t="s">
+      <c r="A231" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="1" t="s">
+      <c r="A232" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A233" s="1" t="s">
+      <c r="A233" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="1" t="s">
+      <c r="A234" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="1" t="s">
+      <c r="A235" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
+      <c r="A236" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="1" t="s">
+      <c r="A237" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
+      <c r="A238" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
+      <c r="A239" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
+      <c r="A240" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
+      <c r="A241" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="1" t="s">
+      <c r="A242" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A243" s="1" t="s">
+      <c r="A243" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="1" t="s">
+      <c r="A244" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="1" t="s">
+      <c r="A245" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="1" t="s">
+      <c r="A246" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A247" s="1" t="s">
+      <c r="A247" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A248" s="1" t="s">
+      <c r="A248" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A249" s="1" t="s">
+      <c r="A249" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A250" s="1" t="s">
+      <c r="A250" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A251" s="1" t="s">
+      <c r="A251" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="1" t="s">
+      <c r="A252" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="1" t="s">
+      <c r="A253" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="1" t="s">
+      <c r="A254" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="1" t="s">
+      <c r="A255" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="1" t="s">
+      <c r="A256" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="1" t="s">
+      <c r="A257" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="1" t="s">
+      <c r="A258" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A259" s="1" t="s">
+      <c r="A259" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="1" t="s">
+      <c r="A260" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="1" t="s">
+      <c r="A261" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="A262" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A263" s="1" t="s">
+      <c r="A263" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A264" s="1" t="s">
+      <c r="A264" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="A265" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A266" s="1" t="s">
+      <c r="A266" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="1" t="s">
+      <c r="A267" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="1" t="s">
+      <c r="A268" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
+      <c r="A269" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
+      <c r="A270" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
+      <c r="A271" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
+      <c r="A272" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
+      <c r="A273" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
+      <c r="A274" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="1" t="s">
+      <c r="A275" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A276" s="1" t="s">
+      <c r="A276" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
+      <c r="A277" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="1" t="s">
+      <c r="A278" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="1" t="s">
+      <c r="A279" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="1" t="s">
+      <c r="A280" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+      <c r="A281" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A282" s="1" t="s">
+      <c r="A282" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A283" s="1" t="s">
+      <c r="A283" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="1" t="s">
+      <c r="A284" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="1" t="s">
+      <c r="A285" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="1" t="s">
+      <c r="A286" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="1" t="s">
+      <c r="A287" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="1" t="s">
+      <c r="A288" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="1" t="s">
+      <c r="A289" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="1" t="s">
+      <c r="A290" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A291" s="1" t="s">
+      <c r="A291" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="A292" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="A293" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="A294" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="1" t="s">
+      <c r="A295" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="1" t="s">
+      <c r="A296" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="1" t="s">
+      <c r="A297" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A298" s="1" t="s">
+      <c r="A298" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
+      <c r="A299" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
+      <c r="A300" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="1" t="s">
+      <c r="A301" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="1" t="s">
+      <c r="A302" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A303" s="1" t="s">
+      <c r="A303" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A304" s="1" t="s">
+      <c r="A304" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A305" s="1" t="s">
+      <c r="A305" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A306" s="1" t="s">
+      <c r="A306" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A307" s="1" t="s">
+      <c r="A307" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A308" s="1" t="s">
+      <c r="A308" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="1" t="s">
+      <c r="A309" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="1" t="s">
+      <c r="A310" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="1" t="s">
+      <c r="A311" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A312" s="1" t="s">
+      <c r="A312" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A313" s="1" t="s">
+      <c r="A313" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A314" s="1" t="s">
+      <c r="A314" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A315" s="1" t="s">
+      <c r="A315" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A316" s="1" t="s">
+      <c r="A316" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="1" t="s">
+      <c r="A317" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="1" t="s">
+      <c r="A318" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="1" t="s">
+      <c r="A319" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A320" s="1" t="s">
+      <c r="A320" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A321" s="1" t="s">
+      <c r="A321" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A322" s="1" t="s">
+      <c r="A322" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
+      <c r="A323" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
+      <c r="A324" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A325" s="1" t="s">
+      <c r="A325" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="1" t="s">
+      <c r="A326" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="1" t="s">
+      <c r="A327" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="1" t="s">
+      <c r="A328" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="1" t="s">
+      <c r="A329" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="1" t="s">
+      <c r="A330" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A331" s="1" t="s">
+      <c r="A331" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A332" s="1" t="s">
+      <c r="A332" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A333" s="1" t="s">
+      <c r="A333" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A334" s="1" t="s">
+      <c r="A334" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A335" s="1" t="s">
+      <c r="A335" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="1" t="s">
+      <c r="A336" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="1" t="s">
+      <c r="A337" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="1" t="s">
+      <c r="A338" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339" s="1" t="s">
+      <c r="A339" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="1" t="s">
+      <c r="A340" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341" s="1" t="s">
+      <c r="A341" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="1" t="s">
+      <c r="A342" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="1" t="s">
+      <c r="A343" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="1" t="s">
+      <c r="A344" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="1" t="s">
+      <c r="A345" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346" s="1" t="s">
+      <c r="A346" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347" s="1" t="s">
+      <c r="A347" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348" s="1" t="s">
+      <c r="A348" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349" s="1" t="s">
+      <c r="A349" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350" s="1" t="s">
+      <c r="A350" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351" s="1" t="s">
+      <c r="A351" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="1" t="s">
+      <c r="A352" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353" s="1" t="s">
+      <c r="A353" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="1" t="s">
+      <c r="A354" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="1" t="s">
+      <c r="A355" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="1" t="s">
+      <c r="A356" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="1" t="s">
+      <c r="A357" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358" s="1" t="s">
+      <c r="A358" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359" s="1" t="s">
+      <c r="A359" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360" s="1" t="s">
+      <c r="A360" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361" s="1" t="s">
+      <c r="A361" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362" s="1" t="s">
+      <c r="A362" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363" s="1" t="s">
+      <c r="A363" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364" s="1" t="s">
+      <c r="A364" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365" s="1" t="s">
+      <c r="A365" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="1" t="s">
+      <c r="A366" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367" s="1" t="s">
+      <c r="A367" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="1" t="s">
+      <c r="A368" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="1" t="s">
+      <c r="A369" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="1" t="s">
+      <c r="A370" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="1" t="s">
+      <c r="A371" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="1" t="s">
+      <c r="A372" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373" s="1" t="s">
+      <c r="A373" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374" s="1" t="s">
+      <c r="A374" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="1" t="s">
+      <c r="A375" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="1" t="s">
+      <c r="A376" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="1" t="s">
+      <c r="A377" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378" s="1" t="s">
+      <c r="A378" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379" s="1" t="s">
+      <c r="A379" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380" s="1" t="s">
+      <c r="A380" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="1" t="s">
+      <c r="A381" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="1" t="s">
+      <c r="A382" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="1" t="s">
+      <c r="A383" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384" s="1" t="s">
+      <c r="A384" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385" s="1" t="s">
+      <c r="A385" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386" s="1" t="s">
+      <c r="A386" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387" s="1" t="s">
+      <c r="A387" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388" s="1" t="s">
+      <c r="A388" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389" s="1" t="s">
+      <c r="A389" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390" s="1" t="s">
+      <c r="A390" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391" s="1" t="s">
+      <c r="A391" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392" s="1" t="s">
+      <c r="A392" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393" s="1" t="s">
+      <c r="A393" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394" s="1" t="s">
+      <c r="A394" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395" s="1" t="s">
+      <c r="A395" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396" s="1" t="s">
+      <c r="A396" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397" s="1" t="s">
+      <c r="A397" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398" s="1" t="s">
+      <c r="A398" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399" s="1" t="s">
+      <c r="A399" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400" s="1" t="s">
+      <c r="A400" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401" s="1" t="s">
+      <c r="A401" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402" s="1" t="s">
+      <c r="A402" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403" s="1" t="s">
+      <c r="A403" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="1" t="s">
+      <c r="A404" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="1" t="s">
+      <c r="A405" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="1" t="s">
+      <c r="A406" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="1" t="s">
+      <c r="A407" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="1" t="s">
+      <c r="A408" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409" s="1" t="s">
+      <c r="A409" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410" s="1" t="s">
+      <c r="A410" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411" s="1" t="s">
+      <c r="A411" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412" s="1" t="s">
+      <c r="A412" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="1" t="s">
+      <c r="A413" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="1" t="s">
+      <c r="A414" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="1" t="s">
+      <c r="A415" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416" s="1" t="s">
+      <c r="A416" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417" s="1" t="s">
+      <c r="A417" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418" s="1" t="s">
+      <c r="A418" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419" s="1" t="s">
+      <c r="A419" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420" s="1" t="s">
+      <c r="A420" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421" s="1" t="s">
+      <c r="A421" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422" s="1" t="s">
+      <c r="A422" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423" s="1" t="s">
+      <c r="A423" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424" s="1" t="s">
+      <c r="A424" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425" s="1" t="s">
+      <c r="A425" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426" s="1" t="s">
+      <c r="A426" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427" s="1" t="s">
+      <c r="A427" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428" s="1" t="s">
+      <c r="A428" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429" s="1" t="s">
+      <c r="A429" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430" s="1" t="s">
+      <c r="A430" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431" s="1" t="s">
+      <c r="A431" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432" s="1" t="s">
+      <c r="A432" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433" s="1" t="s">
+      <c r="A433" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434" s="1" t="s">
+      <c r="A434" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435" s="1" t="s">
+      <c r="A435" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436" s="1" t="s">
+      <c r="A436" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437" s="1" t="s">
+      <c r="A437" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438" s="1" t="s">
+      <c r="A438" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439" s="1" t="s">
+      <c r="A439" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440" s="1" t="s">
+      <c r="A440" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441" s="1" t="s">
+      <c r="A441" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442" s="1" t="s">
+      <c r="A442" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443" s="1" t="s">
+      <c r="A443" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444" s="1" t="s">
+      <c r="A444" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445" s="1" t="s">
+      <c r="A445" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446" s="1" t="s">
+      <c r="A446" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447" s="1" t="s">
+      <c r="A447" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448" s="1" t="s">
+      <c r="A448" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449" s="1" t="s">
+      <c r="A449" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450" s="1" t="s">
+      <c r="A450" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451" s="1" t="s">
+      <c r="A451" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452" s="1" t="s">
+      <c r="A452" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453" s="1" t="s">
+      <c r="A453" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454" s="1" t="s">
+      <c r="A454" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455" s="1" t="s">
+      <c r="A455" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456" s="1" t="s">
+      <c r="A456" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457" s="1" t="s">
+      <c r="A457" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458" s="1" t="s">
+      <c r="A458" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459" s="1" t="s">
+      <c r="A459" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460" s="1" t="s">
+      <c r="A460" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461" s="1" t="s">
+      <c r="A461" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462" s="1" t="s">
+      <c r="A462" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463" s="1" t="s">
+      <c r="A463" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464" s="1" t="s">
+      <c r="A464" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465" s="1" t="s">
+      <c r="A465" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466" s="1" t="s">
+      <c r="A466" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467" s="1" t="s">
+      <c r="A467" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468" s="1" t="s">
+      <c r="A468" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469" s="1" t="s">
+      <c r="A469" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470" s="1" t="s">
+      <c r="A470" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471" s="1" t="s">
+      <c r="A471" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472" s="1" t="s">
+      <c r="A472" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473" s="1" t="s">
+      <c r="A473" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474" s="1" t="s">
+      <c r="A474" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475" s="1" t="s">
+      <c r="A475" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476" s="1" t="s">
+      <c r="A476" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477" s="1" t="s">
+      <c r="A477" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478" s="1" t="s">
+      <c r="A478" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479" s="1" t="s">
+      <c r="A479" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480" s="1" t="s">
+      <c r="A480" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481" s="1" t="s">
+      <c r="A481" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482" s="1" t="s">
+      <c r="A482" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483" s="1" t="s">
+      <c r="A483" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484" s="1" t="s">
+      <c r="A484" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485" s="1" t="s">
+      <c r="A485" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486" s="1" t="s">
+      <c r="A486" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487" s="1" t="s">
+      <c r="A487" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488" s="1" t="s">
+      <c r="A488" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489" s="1" t="s">
+      <c r="A489" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490" s="1" t="s">
+      <c r="A490" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491" s="1" t="s">
+      <c r="A491" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492" s="1" t="s">
+      <c r="A492" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493" s="1" t="s">
+      <c r="A493" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494" s="1" t="s">
+      <c r="A494" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495" s="1" t="s">
+      <c r="A495" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496" s="1" t="s">
+      <c r="A496" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497" s="1" t="s">
+      <c r="A497" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498" s="1" t="s">
+      <c r="A498" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499" s="1" t="s">
+      <c r="A499" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500" s="1" t="s">
+      <c r="A500" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501" s="1" t="s">
+      <c r="A501" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502" s="1" t="s">
+      <c r="A502" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503" s="1" t="s">
+      <c r="A503" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504" s="1" t="s">
+      <c r="A504" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505" s="1" t="s">
+      <c r="A505" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506" s="1" t="s">
+      <c r="A506" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507" s="1" t="s">
+      <c r="A507" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508" s="1" t="s">
+      <c r="A508" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509" s="1" t="s">
+      <c r="A509" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A510" s="1" t="s">
+      <c r="A510" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="511" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A511" s="1" t="s">
+      <c r="A511" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A512" s="1" t="s">
+      <c r="A512" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A513" s="1" t="s">
+      <c r="A513" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="514" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A514" s="1" t="s">
+      <c r="A514" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A515" s="1" t="s">
+      <c r="A515" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A516" s="1" t="s">
+      <c r="A516" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A517" s="1" t="s">
+      <c r="A517" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A518" s="1" t="s">
+      <c r="A518" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A519" s="1" t="s">
+      <c r="A519" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A520" s="1" t="s">
+      <c r="A520" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A521" s="1" t="s">
+      <c r="A521" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A522" s="1" t="s">
+      <c r="A522" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A523" s="1" t="s">
+      <c r="A523" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A524" s="1" t="s">
+      <c r="A524" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="525" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A525" s="1" t="s">
+      <c r="A525" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A526" s="1" t="s">
+      <c r="A526" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A527" s="1" t="s">
+      <c r="A527" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A528" s="1" t="s">
+      <c r="A528" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A529" s="1" t="s">
+      <c r="A529" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A530" s="1" t="s">
+      <c r="A530" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A531" s="1" t="s">
+      <c r="A531" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A532" s="1" t="s">
+      <c r="A532" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="533" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A533" s="1" t="s">
+      <c r="A533" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A534" s="1" t="s">
+      <c r="A534" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A535" s="1" t="s">
+      <c r="A535" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A536" s="1" t="s">
+      <c r="A536" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A537" s="1" t="s">
+      <c r="A537" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A538" s="1" t="s">
+      <c r="A538" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A539" s="1" t="s">
+      <c r="A539" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A540" s="1" t="s">
+      <c r="A540" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A541" s="1" t="s">
+      <c r="A541" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A542" s="1" t="s">
+      <c r="A542" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="543" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A543" s="1" t="s">
+      <c r="A543" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="544" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A544" s="1" t="s">
+      <c r="A544" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="545" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A545" s="1" t="s">
+      <c r="A545" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="546" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A546" s="1" t="s">
+      <c r="A546" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="547" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A547" s="1" t="s">
+      <c r="A547" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A548" s="1" t="s">
+      <c r="A548" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A549" s="1" t="s">
+      <c r="A549" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A550" s="1" t="s">
+      <c r="A550" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A551" s="1" t="s">
+      <c r="A551" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A552" s="1" t="s">
+      <c r="A552" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A553" s="1" t="s">
+      <c r="A553" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A554" s="1" t="s">
+      <c r="A554" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A555" s="1" t="s">
+      <c r="A555" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="556" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A556" s="1" t="s">
+      <c r="A556" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A557" s="1" t="s">
+      <c r="A557" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A558" s="1" t="s">
+      <c r="A558" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A559" s="1" t="s">
+      <c r="A559" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A560" s="1" t="s">
+      <c r="A560" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A561" s="1" t="s">
+      <c r="A561" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A562" s="1" t="s">
+      <c r="A562" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A563" s="1" t="s">
+      <c r="A563" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="564" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A564" s="1" t="s">
+      <c r="A564" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A565" s="1" t="s">
+      <c r="A565" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A566" s="1" t="s">
+      <c r="A566" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="567" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A567" s="1" t="s">
+      <c r="A567" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="568" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A568" s="1" t="s">
+      <c r="A568" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="569" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A569" s="1" t="s">
+      <c r="A569" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="570" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A570" s="1" t="s">
+      <c r="A570" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="571" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A571" s="1" t="s">
+      <c r="A571" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A572" s="1" t="s">
+      <c r="A572" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="573" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A573" s="1" t="s">
+      <c r="A573" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A574" s="1" t="s">
+      <c r="A574" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A575" s="1" t="s">
+      <c r="A575" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A576" s="1" t="s">
+      <c r="A576" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A577" s="1" t="s">
+      <c r="A577" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A578" s="1" t="s">
+      <c r="A578" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="579" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A579" s="1" t="s">
+      <c r="A579" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A580" s="1" t="s">
+      <c r="A580" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A581" s="1" t="s">
+      <c r="A581" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="582" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A582" s="1" t="s">
+      <c r="A582" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="583" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A583" s="1" t="s">
+      <c r="A583" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A584" s="1" t="s">
+      <c r="A584" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A585" s="1" t="s">
+      <c r="A585" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A586" s="1" t="s">
+      <c r="A586" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A587" s="1" t="s">
+      <c r="A587" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A588" s="1" t="s">
+      <c r="A588" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="589" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A589" s="1" t="s">
+      <c r="A589" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A590" s="1" t="s">
+      <c r="A590" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A591" s="1" t="s">
+      <c r="A591" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A592" s="1" t="s">
+      <c r="A592" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A593" s="1" t="s">
+      <c r="A593" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A594" s="1" t="s">
+      <c r="A594" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A595" s="1" t="s">
+      <c r="A595" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A596" s="1" t="s">
+      <c r="A596" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A597" s="1" t="s">
+      <c r="A597" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="598" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A598" s="1" t="s">
+      <c r="A598" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A599" s="1" t="s">
+      <c r="A599" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A600" s="1" t="s">
+      <c r="A600" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A601" s="1" t="s">
+      <c r="A601" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A602" s="1" t="s">
+      <c r="A602" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A603" s="1" t="s">
+      <c r="A603" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A604" s="1" t="s">
+      <c r="A604" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A605" s="1" t="s">
+      <c r="A605" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A606" s="1" t="s">
+      <c r="A606" t="s">
         <v>605</v>
       </c>
     </row>
     <row r="607" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A607" s="1" t="s">
+      <c r="A607" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A608" s="1" t="s">
+      <c r="A608" t="s">
         <v>607</v>
       </c>
     </row>
     <row r="609" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A609" s="1" t="s">
+      <c r="A609" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A610" s="1" t="s">
+      <c r="A610" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A611" s="1" t="s">
+      <c r="A611" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A612" s="1" t="s">
+      <c r="A612" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="613" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A613" s="1" t="s">
+      <c r="A613" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A614" s="1" t="s">
+      <c r="A614" t="s">
         <v>613</v>
       </c>
     </row>
     <row r="615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A615" s="1" t="s">
+      <c r="A615" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A616" s="1" t="s">
+      <c r="A616" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="617" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A617" s="1" t="s">
+      <c r="A617" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A618" s="1" t="s">
+      <c r="A618" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A619" s="1" t="s">
+      <c r="A619" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="620" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A620" s="1" t="s">
+      <c r="A620" t="s">
         <v>619</v>
       </c>
     </row>
     <row r="621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A621" s="1" t="s">
+      <c r="A621" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A622" s="1" t="s">
+      <c r="A622" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A623" s="1" t="s">
+      <c r="A623" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="624" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A624" s="1" t="s">
+      <c r="A624" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A625" s="1" t="s">
+      <c r="A625" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A626" s="1" t="s">
+      <c r="A626" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="627" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A627" s="1" t="s">
+      <c r="A627" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A628" s="1" t="s">
+      <c r="A628" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A629" s="1" t="s">
+      <c r="A629" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="630" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A630" s="1" t="s">
+      <c r="A630" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A631" s="1" t="s">
+      <c r="A631" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A632" s="1" t="s">
+      <c r="A632" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A633" s="1" t="s">
+      <c r="A633" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A634" s="1" t="s">
+      <c r="A634" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="635" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A635" s="1" t="s">
+      <c r="A635" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A636" s="1" t="s">
+      <c r="A636" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="1" t="s">
+      <c r="A637" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="1" t="s">
+      <c r="A638" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="1" t="s">
+      <c r="A639" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A640" s="1" t="s">
+      <c r="A640" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="641" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A641" s="1" t="s">
+      <c r="A641" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A642" s="1" t="s">
+      <c r="A642" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A643" s="1" t="s">
+      <c r="A643" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A644" s="1" t="s">
+      <c r="A644" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A645" s="1" t="s">
+      <c r="A645" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A646" s="1" t="s">
+      <c r="A646" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="647" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A647" s="1" t="s">
+      <c r="A647" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="648" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A648" s="1" t="s">
+      <c r="A648" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A649" s="1" t="s">
+      <c r="A649" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A650" s="1" t="s">
+      <c r="A650" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A651" s="1" t="s">
+      <c r="A651" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A652" s="1" t="s">
+      <c r="A652" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A653" s="1" t="s">
+      <c r="A653" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A654" s="1" t="s">
+      <c r="A654" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A655" s="1" t="s">
+      <c r="A655" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A656" s="1" t="s">
+      <c r="A656" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A657" s="1" t="s">
+      <c r="A657" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A658" s="1" t="s">
+      <c r="A658" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A659" s="1" t="s">
+      <c r="A659" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A660" s="1" t="s">
+      <c r="A660" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A661" s="1" t="s">
+      <c r="A661" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A662" s="1" t="s">
+      <c r="A662" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A663" s="1" t="s">
+      <c r="A663" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="664" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A664" s="1" t="s">
+      <c r="A664" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A665" s="1" t="s">
+      <c r="A665" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A666" s="1" t="s">
+      <c r="A666" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A667" s="1" t="s">
+      <c r="A667" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A668" s="1" t="s">
+      <c r="A668" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A669" s="1" t="s">
+      <c r="A669" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A670" s="1" t="s">
+      <c r="A670" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A671" s="1" t="s">
+      <c r="A671" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A672" s="1" t="s">
+      <c r="A672" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="673" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A673" s="1" t="s">
+      <c r="A673" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A674" s="1" t="s">
+      <c r="A674" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A675" s="1" t="s">
+      <c r="A675" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A676" s="1" t="s">
+      <c r="A676" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A677" s="1" t="s">
+      <c r="A677" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A678" s="1" t="s">
+      <c r="A678" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A679" s="1" t="s">
+      <c r="A679" t="s">
         <v>678</v>
       </c>
     </row>
@@ -7936,4 +8611,2223 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="14" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="M33" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M41" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="N47" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="N49" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="N50" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>